--- a/Somalia-COVID-impact/Cholera.xlsx
+++ b/Somalia-COVID-impact/Cholera.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MiddleShabelle" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="National" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,13 +469,13 @@
         <v>98</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7</v>
+        <v>38.07</v>
       </c>
     </row>
     <row r="3">
@@ -483,16 +483,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>98.05</v>
+        <v>97.97</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06</v>
+        <v>0.73</v>
       </c>
       <c r="D3" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>98.16</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06</v>
+        <v>0.67</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -517,16 +517,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>98.26000000000001</v>
+        <v>98.12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05</v>
+        <v>0.61</v>
       </c>
       <c r="D5" t="n">
-        <v>0.85</v>
+        <v>1.01</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -534,16 +534,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>98.36</v>
+        <v>98.19</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>98.45</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04</v>
+        <v>0.52</v>
       </c>
       <c r="D7" t="n">
-        <v>0.76</v>
+        <v>0.99</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
@@ -568,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98.54000000000001</v>
+        <v>98.33</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04</v>
+        <v>0.48</v>
       </c>
       <c r="D8" t="n">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -585,16 +585,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>98.62</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="D9" t="n">
-        <v>0.68</v>
+        <v>0.96</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -602,16 +602,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>98.7</v>
+        <v>98.47</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.65</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -619,16 +619,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98.77</v>
+        <v>98.53</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03</v>
+        <v>0.37</v>
       </c>
       <c r="D11" t="n">
-        <v>0.61</v>
+        <v>0.92</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12">
@@ -636,16 +636,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98.84</v>
+        <v>98.59</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="D12" t="n">
-        <v>0.58</v>
+        <v>0.89</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13">
@@ -653,16 +653,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98.91</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="D13" t="n">
-        <v>0.55</v>
+        <v>0.87</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
@@ -670,16 +670,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98.97</v>
+        <v>98.70999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="D14" t="n">
-        <v>0.52</v>
+        <v>0.85</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15">
@@ -687,16 +687,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99.03</v>
+        <v>98.77</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="D15" t="n">
-        <v>0.49</v>
+        <v>0.82</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
@@ -704,16 +704,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99.08</v>
+        <v>98.83</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="D16" t="n">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17">
@@ -721,16 +721,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>99.13</v>
+        <v>98.88</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="D17" t="n">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18">
@@ -738,16 +738,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>99.18000000000001</v>
+        <v>98.93000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.41</v>
+        <v>0.74</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="19">
@@ -755,16 +755,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>99.23</v>
+        <v>98.98</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="D19" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20">
@@ -772,16 +772,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>99.27</v>
+        <v>99.03</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="D20" t="n">
-        <v>0.37</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21">
@@ -789,16 +789,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>99.31</v>
+        <v>99.06999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="D21" t="n">
-        <v>0.35</v>
+        <v>0.67</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="22">
@@ -806,16 +806,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>99.34999999999999</v>
+        <v>99.12</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D22" t="n">
-        <v>0.33</v>
+        <v>0.64</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23">
@@ -823,16 +823,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>99.39</v>
+        <v>99.16</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31</v>
+        <v>0.61</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24">
@@ -840,16 +840,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>99.42</v>
+        <v>99.2</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3</v>
+        <v>0.59</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="25">
@@ -857,16 +857,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>99.45999999999999</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="D25" t="n">
-        <v>0.28</v>
+        <v>0.57</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26">
@@ -874,16 +874,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>99.48999999999999</v>
+        <v>99.28</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
@@ -891,16 +891,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>99.52</v>
+        <v>99.31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>0.52</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="28">
@@ -908,16 +908,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>99.54000000000001</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="D28" t="n">
-        <v>0.24</v>
+        <v>0.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29">
@@ -925,16 +925,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>99.56999999999999</v>
+        <v>99.38</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="D29" t="n">
-        <v>0.22</v>
+        <v>0.48</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30">
@@ -942,16 +942,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>99.59</v>
+        <v>99.41</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.21</v>
+        <v>0.46</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31">
@@ -959,16 +959,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>99.62</v>
+        <v>99.44</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32">
@@ -976,16 +976,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>99.64</v>
+        <v>99.47</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D32" t="n">
-        <v>0.19</v>
+        <v>0.42</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33">
@@ -993,16 +993,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>99.66</v>
+        <v>99.5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D33" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34">
@@ -1010,16 +1010,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>99.68000000000001</v>
+        <v>99.52</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D34" t="n">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35">
@@ -1027,16 +1027,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>99.7</v>
+        <v>99.55</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D35" t="n">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36">
@@ -1044,16 +1044,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>99.70999999999999</v>
+        <v>99.56999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D36" t="n">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="37">
@@ -1061,16 +1061,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>99.73</v>
+        <v>99.59</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D37" t="n">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38">
@@ -1078,16 +1078,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>99.75</v>
+        <v>99.61</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D38" t="n">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="39">
@@ -1095,16 +1095,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>99.76000000000001</v>
+        <v>99.63</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D39" t="n">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="40">
@@ -1112,16 +1112,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>99.77</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D40" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="41">
@@ -1129,13 +1129,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>99.79000000000001</v>
+        <v>99.67</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1146,13 +1146,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>99.8</v>
+        <v>99.69</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1163,13 +1163,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>99.81</v>
+        <v>99.7</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>99.81999999999999</v>
+        <v>99.72</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>99.83</v>
+        <v>99.73</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>99.84</v>
+        <v>99.75</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>99.84999999999999</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>99.86</v>
+        <v>99.78</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>99.87</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1282,13 +1282,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>99.87</v>
+        <v>99.8</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>99.88</v>
+        <v>99.81</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1316,13 +1316,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>99.89</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>99.89</v>
+        <v>99.83</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>99.90000000000001</v>
+        <v>99.84</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D54" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>99.91</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D55" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>99.91</v>
+        <v>99.86</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D56" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -1401,13 +1401,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>99.92</v>
+        <v>99.86</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D57" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>99.92</v>
+        <v>99.87</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D58" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>99.93000000000001</v>
+        <v>99.88</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -1452,13 +1452,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>99.93000000000001</v>
+        <v>99.88</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -1469,13 +1469,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>99.93000000000001</v>
+        <v>99.89</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -1486,13 +1486,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>99.94</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>99.94</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -1520,13 +1520,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>99.95</v>
+        <v>99.91</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>99.95</v>
+        <v>99.91</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -1554,13 +1554,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>99.95</v>
+        <v>99.92</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -1571,13 +1571,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>99.95</v>
+        <v>99.92</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>99.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>99.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>99.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -1639,13 +1639,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>99.95999999999999</v>
+        <v>99.94</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -1656,13 +1656,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>99.97</v>
+        <v>99.94</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -1673,13 +1673,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>99.97</v>
+        <v>99.95</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>99.97</v>
+        <v>99.95</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -1707,13 +1707,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>99.97</v>
+        <v>99.95</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -1724,13 +1724,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>99.97</v>
+        <v>99.95</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -1741,13 +1741,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>99.97</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -1758,13 +1758,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>99.98</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -1775,13 +1775,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>99.98</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -1792,13 +1792,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>99.98</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>99.98</v>
+        <v>99.97</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -1826,13 +1826,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>99.98</v>
+        <v>99.97</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>99.98</v>
+        <v>99.97</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -1860,13 +1860,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>99.98</v>
+        <v>99.97</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -1877,16 +1877,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>99.98</v>
+        <v>99.97</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E85" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1894,16 +1894,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>99.98999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E86" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1911,16 +1911,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>99.98999999999999</v>
+        <v>99.98</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E87" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1928,16 +1928,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>99.98999999999999</v>
+        <v>99.98</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E88" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1945,13 +1945,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>99.98999999999999</v>
+        <v>99.98</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E89" t="n">
         <v>-0</v>
@@ -1962,16 +1962,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>99.98999999999999</v>
+        <v>99.98</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E90" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1979,16 +1979,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>99.98999999999999</v>
+        <v>99.98</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E91" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1996,13 +1996,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>99.98999999999999</v>
+        <v>99.98</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>99.98999999999999</v>
+        <v>99.98</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>99.98999999999999</v>
+        <v>99.98</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>99.98999999999999</v>
+        <v>99.98</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E100" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E101" t="n">
         <v>-0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E102" t="n">
         <v>-0</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E103" t="n">
         <v>-0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E104" t="n">
         <v>-0</v>
@@ -2217,16 +2217,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106">
@@ -2234,13 +2234,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -2251,16 +2251,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="108">
@@ -2268,13 +2268,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -2302,13 +2302,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -2319,13 +2319,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -2336,13 +2336,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122">
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="146">
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152">
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153">
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3308,7 +3308,7 @@
         <v>100</v>
       </c>
       <c r="C169" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>100</v>
       </c>
       <c r="C170" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>100</v>
       </c>
       <c r="C171" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>100</v>
       </c>
       <c r="C172" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3529,7 +3529,7 @@
         <v>100</v>
       </c>
       <c r="C182" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -3546,13 +3546,13 @@
         <v>100</v>
       </c>
       <c r="C183" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="184">
@@ -3563,7 +3563,7 @@
         <v>100</v>
       </c>
       <c r="C184" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -3631,13 +3631,13 @@
         <v>100</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -3767,13 +3767,13 @@
         <v>100</v>
       </c>
       <c r="C196" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="197">
@@ -3784,7 +3784,7 @@
         <v>100</v>
       </c>
       <c r="C197" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
